--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>[表头]单据编号(*)</t>
   </si>
@@ -785,94 +785,97 @@
     <t>[自定义]付款单号</t>
   </si>
   <si>
+    <t>{{$fe:inlist t.id</t>
+  </si>
+  <si>
+    <t>t.depotTime</t>
+  </si>
+  <si>
+    <t>t.supplier</t>
+  </si>
+  <si>
+    <t>t.cg</t>
+  </si>
+  <si>
+    <t>t.other</t>
+  </si>
+  <si>
+    <t>t.id</t>
+  </si>
+  <si>
+    <t>t.stockName</t>
+  </si>
+  <si>
+    <t>t.modelName</t>
+  </si>
+  <si>
+    <t>t.unit</t>
+  </si>
+  <si>
+    <t>t.price</t>
+  </si>
+  <si>
+    <t>t.area</t>
+  </si>
+  <si>
+    <t>t.num</t>
+  </si>
+  <si>
+    <t>t.itemNo</t>
+  </si>
+  <si>
+    <t>t.projectName</t>
+  </si>
+  <si>
+    <t>t.purchaseInvoiceNo</t>
+  </si>
+  <si>
+    <t>t.paymentOrderNo}}</t>
+  </si>
+  <si>
+    <t>[表头]购货单位(*)</t>
+  </si>
+  <si>
+    <t>[表头]销售方式(*)</t>
+  </si>
+  <si>
+    <t>[表头]交货地点</t>
+  </si>
+  <si>
+    <t>[表头][自定义]工程项目</t>
+  </si>
+  <si>
+    <t>发货仓库(*)</t>
+  </si>
+  <si>
+    <t>实发数量(*)</t>
+  </si>
+  <si>
+    <t>单位成本(*)</t>
+  </si>
+  <si>
+    <t>销售单价(*)</t>
+  </si>
+  <si>
+    <t>客户料号</t>
+  </si>
+  <si>
+    <t>客户商品名称</t>
+  </si>
+  <si>
+    <t>折扣率</t>
+  </si>
+  <si>
+    <t>[自定义]销售发票号</t>
+  </si>
+  <si>
+    <t>[自定义]销售发票开具日期</t>
+  </si>
+  <si>
+    <t>[自定义]收款单号</t>
+  </si>
+  <si>
     <t>{{$fe:outlist t.id</t>
-  </si>
-  <si>
-    <t>t.depotTime</t>
-  </si>
-  <si>
-    <t>t.supply</t>
-  </si>
-  <si>
-    <t>t.cg</t>
-  </si>
-  <si>
-    <t>t.other</t>
-  </si>
-  <si>
-    <t>t.id</t>
-  </si>
-  <si>
-    <t>t.stockName</t>
-  </si>
-  <si>
-    <t>t.modelName</t>
-  </si>
-  <si>
-    <t>t.unit</t>
-  </si>
-  <si>
-    <t>t.price</t>
-  </si>
-  <si>
-    <t>t.area</t>
-  </si>
-  <si>
-    <t>t.num</t>
-  </si>
-  <si>
-    <t>t.itemNo</t>
-  </si>
-  <si>
-    <t>t.projectName</t>
-  </si>
-  <si>
-    <t>t.purchaseInvoiceNo</t>
-  </si>
-  <si>
-    <t>t.paymentOrderNo}}</t>
-  </si>
-  <si>
-    <t>[表头]购货单位(*)</t>
-  </si>
-  <si>
-    <t>[表头]销售方式(*)</t>
-  </si>
-  <si>
-    <t>[表头]交货地点</t>
-  </si>
-  <si>
-    <t>[表头][自定义]工程项目</t>
-  </si>
-  <si>
-    <t>发货仓库(*)</t>
-  </si>
-  <si>
-    <t>实发数量(*)</t>
-  </si>
-  <si>
-    <t>单位成本(*)</t>
-  </si>
-  <si>
-    <t>销售单价(*)</t>
-  </si>
-  <si>
-    <t>客户料号</t>
-  </si>
-  <si>
-    <t>客户商品名称</t>
-  </si>
-  <si>
-    <t>折扣率</t>
-  </si>
-  <si>
-    <t>[自定义]销售发票号</t>
-  </si>
-  <si>
-    <t>[自定义]销售发票开具日期</t>
-  </si>
-  <si>
-    <t>[自定义]收款单号</t>
   </si>
   <si>
     <t>t.customer</t>
@@ -1912,7 +1915,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2203,16 +2206,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
@@ -2278,13 +2281,13 @@
         <v>28</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -785,7 +785,7 @@
     <t>[自定义]付款单号</t>
   </si>
   <si>
-    <t>{{$fe:inlist t.id</t>
+    <t>{{$fe:inlist t.dj</t>
   </si>
   <si>
     <t>t.depotTime</t>
@@ -875,7 +875,7 @@
     <t>[自定义]收款单号</t>
   </si>
   <si>
-    <t>{{$fe:outlist t.id</t>
+    <t>{{$fe:outlist t.dj</t>
   </si>
   <si>
     <t>t.customer</t>
@@ -1914,8 +1914,8 @@
   <sheetPr/>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2099,8 +2099,8 @@
   <sheetPr/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/金蝶库存统计导出模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\飞奔的蛋炒饭\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入库统计" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +324,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[自定义]付款单号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +360,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -563,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -602,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -667,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -703,6 +721,19 @@
             <charset val="134"/>
           </rPr>
           <t>[自定义]收款单号</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[自定义]付款单号</t>
         </r>
       </text>
     </comment>
@@ -711,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>[表头]单据编号(*)</t>
   </si>
@@ -830,9 +861,6 @@
     <t>t.purchaseInvoiceNo</t>
   </si>
   <si>
-    <t>t.paymentOrderNo}}</t>
-  </si>
-  <si>
     <t>[表头]购货单位(*)</t>
   </si>
   <si>
@@ -890,21 +918,30 @@
     <t>t.sailesInvoiceDate</t>
   </si>
   <si>
-    <t>t.receiptNo}}</t>
+    <t>[自定义]采购发票到票日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.paymentOrderNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.purchaseInvoiceDate}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.receiptNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,157 +960,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,194 +991,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1302,251 +1015,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1560,7 +1031,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1569,7 +1040,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,7 +1055,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,61 +1065,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1906,19 +1333,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -1936,9 +1363,10 @@
     <col min="22" max="22" width="17.125" customWidth="1"/>
     <col min="23" max="23" width="21.375" customWidth="1"/>
     <col min="24" max="24" width="20.75" customWidth="1"/>
+    <col min="25" max="25" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="14.25" spans="1:24">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,8 +1439,11 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:25">
+    <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2083,27 +1514,28 @@
         <v>38</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
@@ -2116,9 +1548,10 @@
     <col min="26" max="26" width="19.25" customWidth="1"/>
     <col min="27" max="27" width="23.5" customWidth="1"/>
     <col min="28" max="28" width="18.75" customWidth="1"/>
+    <col min="29" max="29" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,22 +1559,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>6</v>
@@ -2156,16 +1589,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>18</v>
@@ -2174,10 +1607,10 @@
         <v>13</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>14</v>
@@ -2192,30 +1625,33 @@
         <v>17</v>
       </c>
       <c r="Y1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>28</v>
@@ -2281,18 +1717,21 @@
         <v>28</v>
       </c>
       <c r="Z2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="AB2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>